--- a/data/output/FV2504_FV2410/QUOTES/15002.xlsx
+++ b/data/output/FV2504_FV2410/QUOTES/15002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="287">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="287">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1022,6 +1022,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U111" totalsRowShown="0">
+  <autoFilter ref="A1:U111"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1311,7 +1341,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6463,5 +6496,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/QUOTES/15002.xlsx
+++ b/data/output/FV2504_FV2410/QUOTES/15002.xlsx
@@ -1324,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1346,6 +1346,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1797,7 +1800,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2161,7 +2164,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2307,7 +2310,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2513,7 +2516,7 @@
         <v>255</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2717,7 +2720,7 @@
         <v>256</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2919,7 +2922,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2"/>
@@ -3065,7 +3068,7 @@
         <v>257</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3267,7 +3270,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3469,7 +3472,7 @@
         <v>259</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3729,7 +3732,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4037,7 +4040,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4229,7 +4232,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4603,7 +4606,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4907,7 +4910,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5045,7 +5048,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5195,7 +5198,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5517,7 +5520,7 @@
         <v>265</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5709,24 +5712,24 @@
       <c r="B79" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9" t="s">
+      <c r="K79" s="9"/>
+      <c r="L79" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M79" s="5"/>
@@ -5744,33 +5747,33 @@
       <c r="A80" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8" t="s">
+      <c r="H80" s="9"/>
+      <c r="I80" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="J80" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M80" s="5"/>
@@ -5788,33 +5791,33 @@
       <c r="A81" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="L81" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M81" s="5"/>
@@ -5832,33 +5835,33 @@
       <c r="A82" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8" t="s">
+      <c r="H82" s="9"/>
+      <c r="I82" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J82" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="9" t="s">
+      <c r="J82" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M82" s="5"/>
@@ -5879,26 +5882,26 @@
       <c r="B83" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="K83" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="L83" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M83" s="5"/>
@@ -5916,33 +5919,33 @@
       <c r="A84" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8" t="s">
+      <c r="H84" s="9"/>
+      <c r="I84" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9" t="s">
+      <c r="J84" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M84" s="5"/>
@@ -5960,33 +5963,33 @@
       <c r="A85" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="L85" s="9" t="s">
+      <c r="L85" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M85" s="5"/>
@@ -6004,33 +6007,33 @@
       <c r="A86" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8" t="s">
+      <c r="H86" s="9"/>
+      <c r="I86" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J86" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="9" t="s">
+      <c r="J86" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M86" s="5"/>
@@ -6048,31 +6051,31 @@
       <c r="A87" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8" t="s">
+      <c r="F87" s="9"/>
+      <c r="G87" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8" t="s">
+      <c r="H87" s="9"/>
+      <c r="I87" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="9" t="s">
+      <c r="J87" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M87" s="5"/>
@@ -6090,31 +6093,31 @@
       <c r="A88" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8" t="s">
+      <c r="F88" s="9"/>
+      <c r="G88" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8" t="s">
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9" t="s">
+      <c r="J88" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K88" s="9"/>
+      <c r="L88" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M88" s="5"/>
@@ -6135,22 +6138,22 @@
       <c r="B89" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8" t="s">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K89" s="8" t="s">
+      <c r="K89" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="L89" s="9" t="s">
+      <c r="L89" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M89" s="5"/>
@@ -6168,27 +6171,27 @@
       <c r="A90" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9" t="s">
+      <c r="K90" s="9"/>
+      <c r="L90" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M90" s="5"/>
@@ -6206,33 +6209,33 @@
       <c r="A91" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8" t="s">
+      <c r="H91" s="9"/>
+      <c r="I91" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J91" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="J91" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M91" s="5"/>
@@ -6250,33 +6253,33 @@
       <c r="A92" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="K92" s="8" t="s">
+      <c r="K92" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="L92" s="9" t="s">
+      <c r="L92" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M92" s="5"/>
@@ -6291,21 +6294,21 @@
       <c r="V92" s="5"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
       <c r="J93" s="6" t="s">
         <v>233</v>
       </c>
@@ -6315,18 +6318,18 @@
       <c r="L93" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
       <c r="U93" s="6" t="s">
         <v>281</v>
       </c>
@@ -6516,33 +6519,33 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N97" s="11" t="s">
+      <c r="N97" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="P97" s="11" t="s">
+      <c r="P97" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="Q97" s="11" t="s">
+      <c r="Q97" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11" t="s">
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="U97" s="11" t="s">
+      <c r="U97" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="V97" s="11" t="s">
+      <c r="V97" s="12" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6560,35 +6563,35 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="10" t="s">
+      <c r="L98" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="M98" s="11" t="s">
+      <c r="M98" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N98" s="11" t="s">
+      <c r="N98" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="O98" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="P98" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="Q98" s="11" t="s">
+      <c r="Q98" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="R98" s="11" t="s">
+      <c r="R98" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11" t="s">
+      <c r="S98" s="12"/>
+      <c r="T98" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="U98" s="11" t="s">
+      <c r="U98" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="V98" s="11"/>
+      <c r="V98" s="12"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -6604,53 +6607,53 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="M99" s="11" t="s">
+      <c r="M99" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="P99" s="11" t="s">
+      <c r="P99" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11" t="s">
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11" t="s">
+      <c r="S99" s="12"/>
+      <c r="T99" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="U99" s="11" t="s">
+      <c r="U99" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="V99" s="11" t="s">
+      <c r="V99" s="12" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5" t="s">
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
         <v>251</v>
       </c>
       <c r="K100" s="6" t="s">
@@ -6659,19 +6662,19 @@
       <c r="L100" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M100" s="5" t="s">
+      <c r="M100" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N100" s="5" t="s">
+      <c r="N100" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5" t="s">
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2" t="s">
         <v>251</v>
       </c>
       <c r="V100" s="6" t="s">
@@ -6847,48 +6850,48 @@
       </c>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5" t="s">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="2"/>
       <c r="F104" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5" t="s">
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K104" s="5"/>
+      <c r="K104" s="2"/>
       <c r="L104" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M104" s="5" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5" t="s">
+      <c r="N104" s="2"/>
+      <c r="O104" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P104" s="5"/>
+      <c r="P104" s="2"/>
       <c r="Q104" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5" t="s">
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="V104" s="5"/>
+      <c r="V104" s="2"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
@@ -6949,24 +6952,24 @@
       <c r="B106" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8" t="s">
+      <c r="C106" s="9"/>
+      <c r="D106" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8" t="s">
+      <c r="E106" s="9"/>
+      <c r="F106" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8" t="s">
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="K106" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="L106" s="9" t="s">
+      <c r="L106" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M106" s="5"/>
@@ -6984,31 +6987,31 @@
       <c r="A107" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8" t="s">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8" t="s">
+      <c r="H107" s="9"/>
+      <c r="I107" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J107" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K107" s="8"/>
-      <c r="L107" s="9" t="s">
+      <c r="J107" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K107" s="9"/>
+      <c r="L107" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M107" s="5"/>
@@ -7026,31 +7029,31 @@
       <c r="A108" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8" t="s">
+      <c r="C108" s="9"/>
+      <c r="D108" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8" t="s">
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J108" s="8" t="s">
+      <c r="J108" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="K108" s="8" t="s">
+      <c r="K108" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="L108" s="9" t="s">
+      <c r="L108" s="10" t="s">
         <v>272</v>
       </c>
       <c r="M108" s="5"/>
@@ -7065,48 +7068,48 @@
       <c r="V108" s="5"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5" t="s">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E109" s="5"/>
+      <c r="E109" s="2"/>
       <c r="F109" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5" t="s">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K109" s="5"/>
+      <c r="K109" s="2"/>
       <c r="L109" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M109" s="5" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5" t="s">
+      <c r="N109" s="2"/>
+      <c r="O109" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P109" s="5"/>
+      <c r="P109" s="2"/>
       <c r="Q109" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5" t="s">
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="V109" s="5"/>
+      <c r="V109" s="2"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
